--- a/SurenList.xlsx
+++ b/SurenList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\Vscode\javsdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83319E61-8BDA-4157-9DB2-6F782B9F09DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7B989-F7B9-4181-94DF-5A32F9BE254B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="4785" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942501F8-8E9E-492F-B785-8FB76B0F8DA9}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C68" si="0">A2&amp;B2</f>
+        <f t="shared" ref="C2:C66" si="0">A2&amp;B2</f>
         <v>BMH、</v>
       </c>
       <c r="E2" t="str">

--- a/SurenList.xlsx
+++ b/SurenList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\Vscode\javsdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7B989-F7B9-4181-94DF-5A32F9BE254B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE61D824-291D-411E-ABB9-14C8D1816200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="164">
   <si>
     <t>LUXU</t>
   </si>
@@ -500,9 +500,6 @@
     <t>YKMC、</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>OREP</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>REG</t>
+  </si>
+  <si>
+    <t>ENDX</t>
   </si>
 </sst>
 </file>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942501F8-8E9E-492F-B785-8FB76B0F8DA9}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,18 +892,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C66" si="0">A2&amp;B2</f>
+        <f>A2&amp;B2</f>
         <v>BMH、</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(C2:C88)</f>
-        <v xml:space="preserve">BMH、BNJC、CUTE、DCV、EMOI、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、KAGD、KJN、KNB、KSKO、KURO、LADY、LAFBD、LAS、LUXU、MAAN、MGDN、MISM、MIUM、MMGH、MMH、MNTJ、MTP、MY、NAMA、NNPJ、NTK、NTTR、OBUT、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PKJD、REG、REP、SCP、SCUTE、SHOW、SHYN、SIMM、SIRO、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、URF、VOV、YKMC </v>
+        <f>_xlfn.CONCAT(C2:C89)</f>
+        <v>BMH、BNJC、CUTE、DCV、EMOI、ENDX、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、KAGD、KJN、KNB、KSKO、KURO、LADY、LAFBD、LAS、LUXU、MAAN、MGDN、MISM、MIUM、MMGH、MMH、MNTJ、MTP、MY、NAMA、NNPJ、NTK、NTTR、OBUT、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PKJD、REG、REP、SCP、SCUTE、SHOW、SHYN、SIMM、SIRO、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、URF、VOV、YKMC</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>A3&amp;B3</f>
         <v>BNJC、</v>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>73</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>A4&amp;B4</f>
         <v>CUTE、</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>73</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>A5&amp;B5</f>
         <v>DCV、</v>
       </c>
     </row>
@@ -950,188 +950,188 @@
         <v>73</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>A6&amp;B6</f>
         <v>EMOI、</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>EVA、</v>
+        <f t="shared" ref="C7:C8" si="0">A7&amp;B7</f>
+        <v>ENDX、</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>EWDX、</v>
+        <v>EVA、</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>EXMU、</v>
+        <f>A9&amp;B9</f>
+        <v>EWDX、</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>EZD、</v>
+        <f>A10&amp;B10</f>
+        <v>EXMU、</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>FAD、</v>
+        <f>A11&amp;B11</f>
+        <v>EZD、</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>FCTD、</v>
+        <f>A12&amp;B12</f>
+        <v>FAD、</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>GANA、</v>
+        <f>A13&amp;B13</f>
+        <v>FCTD、</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>GAREA、</v>
+        <f>A14&amp;B14</f>
+        <v>GANA、</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>GAV、</v>
+        <f>A15&amp;B15</f>
+        <v>GAREA、</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>GERBM、</v>
+        <f>A16&amp;B16</f>
+        <v>GAV、</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>GERK、</v>
+        <f>A17&amp;B17</f>
+        <v>GERBM、</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>HEN、</v>
+        <f>A18&amp;B18</f>
+        <v>GERK、</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>HMDN、</v>
+        <f>A19&amp;B19</f>
+        <v>HEN、</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>HOI、</v>
+        <f>A20&amp;B20</f>
+        <v>HMDN、</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>HSAM、</v>
+        <f>A21&amp;B21</f>
+        <v>HOI、</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,805 +1142,814 @@
         <v>73</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>HYPN、</v>
+        <f>A22&amp;B22</f>
+        <v>HSAM、</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>IMDK、</v>
+        <f>A23&amp;B23</f>
+        <v>HYPN、</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>INST、</v>
+        <f>A24&amp;B24</f>
+        <v>IMDK、</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>ION、</v>
+        <f>A25&amp;B25</f>
+        <v>INST、</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>JAC、</v>
+        <f>A26&amp;B26</f>
+        <v>ION、</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27" si="1">A27&amp;B27</f>
-        <v>JKK、</v>
+        <f>A27&amp;B27</f>
+        <v>JAC、</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>JKZ、</v>
+        <f>A28&amp;B28</f>
+        <v>JKK、</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>JNT、</v>
+        <f>A29&amp;B29</f>
+        <v>JKZ、</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>JOTK、</v>
+        <f>A30&amp;B30</f>
+        <v>JNT、</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>KAGD、</v>
+        <f>A31&amp;B31</f>
+        <v>JOTK、</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>KJN、</v>
+        <f>A32&amp;B32</f>
+        <v>KAGD、</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>KNB、</v>
+        <f>A33&amp;B33</f>
+        <v>KJN、</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>KSKO、</v>
+        <f>A34&amp;B34</f>
+        <v>KNB、</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>KURO、</v>
+        <f>A35&amp;B35</f>
+        <v>KSKO、</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>LADY、</v>
+        <f>A36&amp;B36</f>
+        <v>KURO、</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>LAFBD、</v>
+        <f>A37&amp;B37</f>
+        <v>LADY、</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>LAS、</v>
+        <f>A38&amp;B38</f>
+        <v>LAFBD、</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>LUXU、</v>
+        <f>A39&amp;B39</f>
+        <v>LAS、</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>MAAN、</v>
+        <f>A40&amp;B40</f>
+        <v>LUXU、</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDN、</v>
+        <f>A41&amp;B41</f>
+        <v>MAAN、</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>MISM、</v>
+        <f>A42&amp;B42</f>
+        <v>MGDN、</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>MIUM、</v>
+        <f>A43&amp;B43</f>
+        <v>MISM、</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>MMGH、</v>
+        <f>A44&amp;B44</f>
+        <v>MIUM、</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>MMH、</v>
+        <f>A45&amp;B45</f>
+        <v>MMGH、</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>MNTJ、</v>
+        <f>A46&amp;B46</f>
+        <v>MMH、</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>MTP、</v>
+        <f>A47&amp;B47</f>
+        <v>MNTJ、</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>MY、</v>
+        <f>A48&amp;B48</f>
+        <v>MTP、</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>NAMA、</v>
+        <f>A49&amp;B49</f>
+        <v>MY、</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>NNPJ、</v>
+        <f>A50&amp;B50</f>
+        <v>NAMA、</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>NTK、</v>
+        <f>A51&amp;B51</f>
+        <v>NNPJ、</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>NTTR、</v>
+        <f>A52&amp;B52</f>
+        <v>NTK、</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>OBUT、</v>
+        <f>A53&amp;B53</f>
+        <v>NTTR、</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>ORE、</v>
+        <f>A54&amp;B54</f>
+        <v>OBUT、</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>OREBMS、</v>
+        <f>A55&amp;B55</f>
+        <v>ORE、</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>OREC、</v>
+        <f>A56&amp;B56</f>
+        <v>OREBMS、</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>OREP、</v>
+        <f>A57&amp;B57</f>
+        <v>OREC、</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>ORERB、</v>
+        <f>A58&amp;B58</f>
+        <v>OREP、</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>ORETD、</v>
+        <f>A59&amp;B59</f>
+        <v>ORERB、</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>ORETDP、</v>
+        <f>A60&amp;B60</f>
+        <v>ORETD、</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>OREX、</v>
+        <f>A61&amp;B61</f>
+        <v>ORETDP、</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>OTIM、</v>
+        <f>A62&amp;B62</f>
+        <v>OREX、</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>PAPA、</v>
+        <f>A63&amp;B63</f>
+        <v>OTIM、</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>PER、</v>
+        <f>A64&amp;B64</f>
+        <v>PAPA、</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>PKJD、</v>
+        <f>A65&amp;B65</f>
+        <v>PER、</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>REG、</v>
+        <f>A66&amp;B66</f>
+        <v>PKJD、</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C68" si="2">A67&amp;B67</f>
-        <v>REP、</v>
+        <f>A67&amp;B67</f>
+        <v>REG、</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="2"/>
-        <v>SCP、</v>
+        <f>A68&amp;B68</f>
+        <v>REP、</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C88" si="3">A69&amp;B69</f>
-        <v>SCUTE、</v>
+        <f>A69&amp;B69</f>
+        <v>SCP、</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="3"/>
-        <v>SHOW、</v>
+        <f>A70&amp;B70</f>
+        <v>SCUTE、</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="3"/>
-        <v>SHYN、</v>
+        <f>A71&amp;B71</f>
+        <v>SHOW、</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="3"/>
-        <v>SIMM、</v>
+        <f>A72&amp;B72</f>
+        <v>SHYN、</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="3"/>
-        <v>SIRO、</v>
+        <f>A73&amp;B73</f>
+        <v>SIMM、</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="3"/>
-        <v>SPOR、</v>
+        <f>A74&amp;B74</f>
+        <v>SIRO、</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="3"/>
-        <v>SPRM、</v>
+        <f>A75&amp;B75</f>
+        <v>SPOR、</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="3"/>
-        <v>SQB、</v>
+        <f>A76&amp;B76</f>
+        <v>SPRM、</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="3"/>
-        <v>SRCN、</v>
+        <f>A77&amp;B77</f>
+        <v>SQB、</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="3"/>
-        <v>SRHO、</v>
+        <f>A78&amp;B78</f>
+        <v>SRCN、</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="3"/>
-        <v>SRTD、</v>
+        <f>A79&amp;B79</f>
+        <v>SRHO、</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="3"/>
-        <v>SSAN、</v>
+        <f>A80&amp;B80</f>
+        <v>SRTD、</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>73</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="3"/>
-        <v>STKO、</v>
+        <f>A81&amp;B81</f>
+        <v>SSAN、</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
         <v>73</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="3"/>
-        <v>SUKE、</v>
+        <f>A82&amp;B82</f>
+        <v>STKO、</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>73</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="3"/>
-        <v>SVMM、</v>
+        <f>A83&amp;B83</f>
+        <v>SUKE、</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="3"/>
-        <v>SWEET、</v>
+        <f>A84&amp;B84</f>
+        <v>SVMM、</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>73</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="3"/>
-        <v>SYBI、</v>
+        <f>A85&amp;B85</f>
+        <v>SWEET、</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
         <v>73</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="3"/>
-        <v>URF、</v>
+        <f>A86&amp;B86</f>
+        <v>SYBI、</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
         <v>73</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="3"/>
-        <v>VOV、</v>
+        <f>A87&amp;B87</f>
+        <v>URF、</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="str">
+        <f>A88&amp;B88</f>
+        <v>VOV、</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>50</v>
       </c>
-      <c r="B88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">YKMC </v>
+      <c r="C89" t="str">
+        <f>A89&amp;B89</f>
+        <v>YKMC</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A88">
-    <sortCondition ref="A1:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C89">
+    <sortCondition ref="A1:A89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SurenList.xlsx
+++ b/SurenList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\Vscode\javsdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE61D824-291D-411E-ABB9-14C8D1816200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1F1B5-6E15-4E6E-9227-C59AC0119C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="179">
   <si>
     <t>LUXU</t>
   </si>
@@ -549,6 +549,51 @@
   </si>
   <si>
     <t>ENDX</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>NKR</t>
+  </si>
+  <si>
+    <t>JTR</t>
+  </si>
+  <si>
+    <t>PIZ</t>
+  </si>
+  <si>
+    <t>BZDC</t>
+  </si>
+  <si>
+    <t>KIRAY</t>
+  </si>
+  <si>
+    <t>KITAIKE</t>
+  </si>
+  <si>
+    <t>KMTU</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>SENN</t>
+  </si>
+  <si>
+    <t>OKYH</t>
+  </si>
+  <si>
+    <t>RCTS</t>
+  </si>
+  <si>
+    <t>AKDL</t>
+  </si>
+  <si>
+    <t>ETQR</t>
+  </si>
+  <si>
+    <t>ONS</t>
   </si>
 </sst>
 </file>
@@ -866,24 +911,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942501F8-8E9E-492F-B785-8FB76B0F8DA9}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>73</v>
       </c>
       <c r="C1" t="str">
         <f>A1&amp;B1</f>
-        <v>ARA、</v>
+        <v>AID、</v>
       </c>
       <c r="E1" t="e" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">concate(C1:C76)</f>
@@ -892,1064 +937,1244 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;B2</f>
-        <v>BMH、</v>
+        <v>AKDL、</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(C2:C89)</f>
-        <v>BMH、BNJC、CUTE、DCV、EMOI、ENDX、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、KAGD、KJN、KNB、KSKO、KURO、LADY、LAFBD、LAS、LUXU、MAAN、MGDN、MISM、MIUM、MMGH、MMH、MNTJ、MTP、MY、NAMA、NNPJ、NTK、NTTR、OBUT、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PKJD、REG、REP、SCP、SCUTE、SHOW、SHYN、SIMM、SIRO、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、URF、VOV、YKMC</v>
+        <f>_xlfn.CONCAT(C:C)</f>
+        <v>AID、AKDL、ARA、BMH、BNJC、BZDC、CUTE、DCV、EMOI、ENDX、ETQR、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、JTR、KAGD、KIRAY、KITAIKE、KJN、KMTU、KNB、KSKO、KURO、LADY、LAFBD、LAS、LUXU、MAAN、MAG、MGDN、MISM、MIUM、MMGH、MMH、MNTJ、MTP、MY、NAMA、NKR、NNPJ、NTK、NTTR、OBUT、OKYH、ONS、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PIZ、PKJD、RCTS、REG、REP、SCP、SCUTE、SENN、SHOW、SHYN、SIMM、SIRO、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、URF、VOV、YKMC</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="str">
         <f>A3&amp;B3</f>
-        <v>BNJC、</v>
+        <v>ARA、</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="str">
         <f>A4&amp;B4</f>
-        <v>CUTE、</v>
+        <v>BMH、</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="str">
         <f>A5&amp;B5</f>
-        <v>DCV、</v>
+        <v>BNJC、</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
       <c r="C6" t="str">
         <f>A6&amp;B6</f>
-        <v>EMOI、</v>
+        <v>BZDC、</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C8" si="0">A7&amp;B7</f>
-        <v>ENDX、</v>
+        <f>A7&amp;B7</f>
+        <v>CUTE、</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>EVA、</v>
+        <f>A8&amp;B8</f>
+        <v>DCV、</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="str">
         <f>A9&amp;B9</f>
-        <v>EWDX、</v>
+        <v>EMOI、</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="str">
         <f>A10&amp;B10</f>
-        <v>EXMU、</v>
+        <v>ENDX、</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
       </c>
       <c r="C11" t="str">
         <f>A11&amp;B11</f>
-        <v>EZD、</v>
+        <v>ETQR、</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="str">
         <f>A12&amp;B12</f>
-        <v>FAD、</v>
+        <v>EVA、</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="str">
         <f>A13&amp;B13</f>
-        <v>FCTD、</v>
+        <v>EWDX、</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="str">
         <f>A14&amp;B14</f>
-        <v>GANA、</v>
+        <v>EXMU、</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="str">
         <f>A15&amp;B15</f>
-        <v>GAREA、</v>
+        <v>EZD、</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="str">
         <f>A16&amp;B16</f>
-        <v>GAV、</v>
+        <v>FAD、</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="str">
         <f>A17&amp;B17</f>
-        <v>GERBM、</v>
+        <v>FCTD、</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="str">
         <f>A18&amp;B18</f>
-        <v>GERK、</v>
+        <v>GANA、</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="str">
         <f>A19&amp;B19</f>
-        <v>HEN、</v>
+        <v>GAREA、</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="str">
         <f>A20&amp;B20</f>
-        <v>HMDN、</v>
+        <v>GAV、</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="str">
         <f>A21&amp;B21</f>
-        <v>HOI、</v>
+        <v>GERBM、</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="str">
         <f>A22&amp;B22</f>
-        <v>HSAM、</v>
+        <v>GERK、</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="str">
         <f>A23&amp;B23</f>
-        <v>HYPN、</v>
+        <v>HEN、</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="str">
         <f>A24&amp;B24</f>
-        <v>IMDK、</v>
+        <v>HMDN、</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="str">
         <f>A25&amp;B25</f>
-        <v>INST、</v>
+        <v>HOI、</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="str">
         <f>A26&amp;B26</f>
-        <v>ION、</v>
+        <v>HSAM、</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="str">
         <f>A27&amp;B27</f>
-        <v>JAC、</v>
+        <v>HYPN、</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="str">
         <f>A28&amp;B28</f>
-        <v>JKK、</v>
+        <v>IMDK、</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="str">
         <f>A29&amp;B29</f>
-        <v>JKZ、</v>
+        <v>INST、</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="str">
         <f>A30&amp;B30</f>
-        <v>JNT、</v>
+        <v>ION、</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="str">
         <f>A31&amp;B31</f>
-        <v>JOTK、</v>
+        <v>JAC、</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="str">
         <f>A32&amp;B32</f>
-        <v>KAGD、</v>
+        <v>JKK、</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="str">
         <f>A33&amp;B33</f>
-        <v>KJN、</v>
+        <v>JKZ、</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="C34" t="str">
         <f>A34&amp;B34</f>
-        <v>KNB、</v>
+        <v>JNT、</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="str">
         <f>A35&amp;B35</f>
-        <v>KSKO、</v>
+        <v>JOTK、</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="str">
         <f>A36&amp;B36</f>
-        <v>KURO、</v>
+        <v>JTR、</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="str">
         <f>A37&amp;B37</f>
-        <v>LADY、</v>
+        <v>KAGD、</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="str">
         <f>A38&amp;B38</f>
-        <v>LAFBD、</v>
+        <v>KIRAY、</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="str">
         <f>A39&amp;B39</f>
-        <v>LAS、</v>
+        <v>KITAIKE、</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="str">
         <f>A40&amp;B40</f>
-        <v>LUXU、</v>
+        <v>KJN、</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="str">
         <f>A41&amp;B41</f>
-        <v>MAAN、</v>
+        <v>KMTU、</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="str">
         <f>A42&amp;B42</f>
-        <v>MGDN、</v>
+        <v>KNB、</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="str">
         <f>A43&amp;B43</f>
-        <v>MISM、</v>
+        <v>KSKO、</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="str">
         <f>A44&amp;B44</f>
-        <v>MIUM、</v>
+        <v>KURO、</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="str">
         <f>A45&amp;B45</f>
-        <v>MMGH、</v>
+        <v>LADY、</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="str">
         <f>A46&amp;B46</f>
-        <v>MMH、</v>
+        <v>LAFBD、</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
       </c>
       <c r="C47" t="str">
         <f>A47&amp;B47</f>
-        <v>MNTJ、</v>
+        <v>LAS、</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="str">
         <f>A48&amp;B48</f>
-        <v>MTP、</v>
+        <v>LUXU、</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49" t="str">
         <f>A49&amp;B49</f>
-        <v>MY、</v>
+        <v>MAAN、</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50" t="str">
         <f>A50&amp;B50</f>
-        <v>NAMA、</v>
+        <v>MAG、</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51" t="str">
         <f>A51&amp;B51</f>
-        <v>NNPJ、</v>
+        <v>MGDN、</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="str">
         <f>A52&amp;B52</f>
-        <v>NTK、</v>
+        <v>MISM、</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
       <c r="C53" t="str">
         <f>A53&amp;B53</f>
-        <v>NTTR、</v>
+        <v>MIUM、</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="C54" t="str">
         <f>A54&amp;B54</f>
-        <v>OBUT、</v>
+        <v>MMGH、</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="str">
         <f>A55&amp;B55</f>
-        <v>ORE、</v>
+        <v>MMH、</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
       </c>
       <c r="C56" t="str">
         <f>A56&amp;B56</f>
-        <v>OREBMS、</v>
+        <v>MNTJ、</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
       </c>
       <c r="C57" t="str">
         <f>A57&amp;B57</f>
-        <v>OREC、</v>
+        <v>MTP、</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="str">
         <f>A58&amp;B58</f>
-        <v>OREP、</v>
+        <v>MY、</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
       </c>
       <c r="C59" t="str">
         <f>A59&amp;B59</f>
-        <v>ORERB、</v>
+        <v>NAMA、</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
       </c>
       <c r="C60" t="str">
         <f>A60&amp;B60</f>
-        <v>ORETD、</v>
+        <v>NKR、</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="str">
         <f>A61&amp;B61</f>
-        <v>ORETDP、</v>
+        <v>NNPJ、</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="str">
         <f>A62&amp;B62</f>
-        <v>OREX、</v>
+        <v>NTK、</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
       <c r="C63" t="str">
         <f>A63&amp;B63</f>
-        <v>OTIM、</v>
+        <v>NTTR、</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64" t="str">
         <f>A64&amp;B64</f>
-        <v>PAPA、</v>
+        <v>OBUT、</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
       <c r="C65" t="str">
         <f>A65&amp;B65</f>
-        <v>PER、</v>
+        <v>OKYH、</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="str">
         <f>A66&amp;B66</f>
-        <v>PKJD、</v>
+        <v>ONS、</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="str">
         <f>A67&amp;B67</f>
-        <v>REG、</v>
+        <v>ORE、</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="str">
         <f>A68&amp;B68</f>
-        <v>REP、</v>
+        <v>OREBMS、</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="str">
         <f>A69&amp;B69</f>
-        <v>SCP、</v>
+        <v>OREC、</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
       <c r="C70" t="str">
         <f>A70&amp;B70</f>
-        <v>SCUTE、</v>
+        <v>OREP、</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="str">
         <f>A71&amp;B71</f>
-        <v>SHOW、</v>
+        <v>ORERB、</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="str">
         <f>A72&amp;B72</f>
-        <v>SHYN、</v>
+        <v>ORETD、</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="str">
         <f>A73&amp;B73</f>
-        <v>SIMM、</v>
+        <v>ORETDP、</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="str">
         <f>A74&amp;B74</f>
-        <v>SIRO、</v>
+        <v>OREX、</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" t="str">
         <f>A75&amp;B75</f>
-        <v>SPOR、</v>
+        <v>OTIM、</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
       <c r="C76" t="str">
         <f>A76&amp;B76</f>
-        <v>SPRM、</v>
+        <v>PAPA、</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
       </c>
       <c r="C77" t="str">
         <f>A77&amp;B77</f>
-        <v>SQB、</v>
+        <v>PER、</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="str">
         <f>A78&amp;B78</f>
-        <v>SRCN、</v>
+        <v>PIZ、</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
       </c>
       <c r="C79" t="str">
         <f>A79&amp;B79</f>
-        <v>SRHO、</v>
+        <v>PKJD、</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
       </c>
       <c r="C80" t="str">
         <f>A80&amp;B80</f>
-        <v>SRTD、</v>
+        <v>RCTS、</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
         <v>73</v>
       </c>
       <c r="C81" t="str">
         <f>A81&amp;B81</f>
-        <v>SSAN、</v>
+        <v>REG、</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
         <v>73</v>
       </c>
       <c r="C82" t="str">
         <f>A82&amp;B82</f>
-        <v>STKO、</v>
+        <v>REP、</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
         <v>73</v>
       </c>
       <c r="C83" t="str">
         <f>A83&amp;B83</f>
-        <v>SUKE、</v>
+        <v>SCP、</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="str">
         <f>A84&amp;B84</f>
-        <v>SVMM、</v>
+        <v>SCUTE、</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
         <v>73</v>
       </c>
       <c r="C85" t="str">
         <f>A85&amp;B85</f>
-        <v>SWEET、</v>
+        <v>SENN、</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
         <v>73</v>
       </c>
       <c r="C86" t="str">
         <f>A86&amp;B86</f>
-        <v>SYBI、</v>
+        <v>SHOW、</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>73</v>
       </c>
       <c r="C87" t="str">
         <f>A87&amp;B87</f>
-        <v>URF、</v>
+        <v>SHYN、</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>73</v>
       </c>
       <c r="C88" t="str">
         <f>A88&amp;B88</f>
-        <v>VOV、</v>
+        <v>SIMM、</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
       </c>
       <c r="C89" t="str">
         <f>A89&amp;B89</f>
+        <v>SIRO、</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="str">
+        <f>A90&amp;B90</f>
+        <v>SPOR、</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="str">
+        <f>A91&amp;B91</f>
+        <v>SPRM、</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="str">
+        <f>A92&amp;B92</f>
+        <v>SQB、</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" t="str">
+        <f>A93&amp;B93</f>
+        <v>SRCN、</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="str">
+        <f>A94&amp;B94</f>
+        <v>SRHO、</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="str">
+        <f>A95&amp;B95</f>
+        <v>SRTD、</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="str">
+        <f>A96&amp;B96</f>
+        <v>SSAN、</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="str">
+        <f>A97&amp;B97</f>
+        <v>STKO、</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" t="str">
+        <f>A98&amp;B98</f>
+        <v>SUKE、</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="str">
+        <f>A99&amp;B99</f>
+        <v>SVMM、</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="str">
+        <f>A100&amp;B100</f>
+        <v>SWEET、</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="str">
+        <f>A101&amp;B101</f>
+        <v>SYBI、</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="str">
+        <f>A102&amp;B102</f>
+        <v>URF、</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="str">
+        <f>A103&amp;B103</f>
+        <v>VOV、</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="str">
+        <f>A104&amp;B104</f>
         <v>YKMC</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C89">
-    <sortCondition ref="A1:A89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SurenList.xlsx
+++ b/SurenList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\Vscode\javsdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1F1B5-6E15-4E6E-9227-C59AC0119C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3229812-15AE-4896-AE36-E59AEDF03CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="193">
   <si>
     <t>LUXU</t>
   </si>
@@ -594,6 +594,48 @@
   </si>
   <si>
     <t>ONS</t>
+  </si>
+  <si>
+    <t>UTSU</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>SPCY</t>
+  </si>
+  <si>
+    <t>NRPK</t>
+  </si>
+  <si>
+    <t>SKIV</t>
+  </si>
+  <si>
+    <t>ETVTM</t>
+  </si>
+  <si>
+    <t>KBVR</t>
+  </si>
+  <si>
+    <t>LOLI</t>
+  </si>
+  <si>
+    <t>SGK</t>
+  </si>
+  <si>
+    <t>YRTB</t>
+  </si>
+  <si>
+    <t>MLA</t>
+  </si>
+  <si>
+    <t>TRUMG</t>
+  </si>
+  <si>
+    <t>SDGN</t>
   </si>
 </sst>
 </file>
@@ -911,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942501F8-8E9E-492F-B785-8FB76B0F8DA9}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +969,7 @@
         <v>73</v>
       </c>
       <c r="C1" t="str">
-        <f>A1&amp;B1</f>
+        <f t="shared" ref="C1:C64" si="0">A1&amp;B1</f>
         <v>AID、</v>
       </c>
       <c r="E1" t="e" cm="1">
@@ -943,12 +985,12 @@
         <v>73</v>
       </c>
       <c r="C2" t="str">
-        <f>A2&amp;B2</f>
+        <f t="shared" si="0"/>
         <v>AKDL、</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT(C:C)</f>
-        <v>AID、AKDL、ARA、BMH、BNJC、BZDC、CUTE、DCV、EMOI、ENDX、ETQR、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、JTR、KAGD、KIRAY、KITAIKE、KJN、KMTU、KNB、KSKO、KURO、LADY、LAFBD、LAS、LUXU、MAAN、MAG、MGDN、MISM、MIUM、MMGH、MMH、MNTJ、MTP、MY、NAMA、NKR、NNPJ、NTK、NTTR、OBUT、OKYH、ONS、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PIZ、PKJD、RCTS、REG、REP、SCP、SCUTE、SENN、SHOW、SHYN、SIMM、SIRO、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、URF、VOV、YKMC</v>
+        <v>AID、AKDL、ARA、BMH、BNJC、BZDC、CUTE、DCV、EMOI、ENDX、ETQR、ETVTM、EVA、EWDX、EXMU、EZD、FAD、FCTD、GANA、GAREA、GAV、GERBM、GERK、HEN、HHH、HMDN、HOI、HSAM、HYPN、IMDK、INST、ION、JAC、JKK、JKZ、JNT、JOTK、JTR、KAGD、KBVR、KIRAY、KITAIKE、KJN、KMTU、KNB、KSKO、KURO、LADY、LAFBD、LAS、LOLI、LUXU、MAAN、MAG、MFC、MGDN、MISM、MIUM、MLA、MMGH、MMH、MNTJ、MTP、MY、NAMA、NKR、NNPJ、NRPK、NTK、NTTR、OBUT、OKYH、ONS、ORE、OREBMS、OREC、OREP、ORERB、ORETD、ORETDP、OREX、OTIM、PAPA、PER、PIZ、PKJD、RCTS、REG、REP、SCP、SCUTE、SDGN、SENN、SGK、SHOW、SHYN、SIMM、SIRO、SKIV、SPCY、SPOR、SPRM、SQB、SRCN、SRHO、SRTD、SSAN、STKO、SUKE、SVMM、SWEET、SYBI、TRUMG、URF、UTSU、VOV、YKMC、YRTB</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,7 +1001,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="str">
-        <f>A3&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>ARA、</v>
       </c>
     </row>
@@ -971,7 +1013,7 @@
         <v>73</v>
       </c>
       <c r="C4" t="str">
-        <f>A4&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>BMH、</v>
       </c>
     </row>
@@ -983,7 +1025,7 @@
         <v>73</v>
       </c>
       <c r="C5" t="str">
-        <f>A5&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>BNJC、</v>
       </c>
     </row>
@@ -995,7 +1037,7 @@
         <v>73</v>
       </c>
       <c r="C6" t="str">
-        <f>A6&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>BZDC、</v>
       </c>
     </row>
@@ -1007,7 +1049,7 @@
         <v>73</v>
       </c>
       <c r="C7" t="str">
-        <f>A7&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>CUTE、</v>
       </c>
     </row>
@@ -1019,7 +1061,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="str">
-        <f>A8&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>DCV、</v>
       </c>
     </row>
@@ -1031,7 +1073,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="str">
-        <f>A9&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>EMOI、</v>
       </c>
     </row>
@@ -1043,7 +1085,7 @@
         <v>73</v>
       </c>
       <c r="C10" t="str">
-        <f>A10&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>ENDX、</v>
       </c>
     </row>
@@ -1055,1126 +1097,1294 @@
         <v>73</v>
       </c>
       <c r="C11" t="str">
-        <f>A11&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>ETQR、</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="str">
-        <f>A12&amp;B12</f>
-        <v>EVA、</v>
+        <f t="shared" si="0"/>
+        <v>ETVTM、</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="str">
-        <f>A13&amp;B13</f>
-        <v>EWDX、</v>
+        <f t="shared" si="0"/>
+        <v>EVA、</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="str">
-        <f>A14&amp;B14</f>
-        <v>EXMU、</v>
+        <f t="shared" si="0"/>
+        <v>EWDX、</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="str">
-        <f>A15&amp;B15</f>
-        <v>EZD、</v>
+        <f t="shared" si="0"/>
+        <v>EXMU、</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
       </c>
       <c r="C16" t="str">
-        <f>A16&amp;B16</f>
-        <v>FAD、</v>
+        <f t="shared" si="0"/>
+        <v>EZD、</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="str">
-        <f>A17&amp;B17</f>
-        <v>FCTD、</v>
+        <f t="shared" si="0"/>
+        <v>FAD、</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
       <c r="C18" t="str">
-        <f>A18&amp;B18</f>
-        <v>GANA、</v>
+        <f t="shared" si="0"/>
+        <v>FCTD、</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="str">
-        <f>A19&amp;B19</f>
-        <v>GAREA、</v>
+        <f t="shared" si="0"/>
+        <v>GANA、</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="str">
-        <f>A20&amp;B20</f>
-        <v>GAV、</v>
+        <f t="shared" si="0"/>
+        <v>GAREA、</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="str">
-        <f>A21&amp;B21</f>
-        <v>GERBM、</v>
+        <f t="shared" si="0"/>
+        <v>GAV、</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="str">
-        <f>A22&amp;B22</f>
-        <v>GERK、</v>
+        <f t="shared" si="0"/>
+        <v>GERBM、</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="str">
-        <f>A23&amp;B23</f>
-        <v>HEN、</v>
+        <f t="shared" si="0"/>
+        <v>GERK、</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="str">
-        <f>A24&amp;B24</f>
-        <v>HMDN、</v>
+        <f t="shared" si="0"/>
+        <v>HEN、</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="str">
-        <f>A25&amp;B25</f>
-        <v>HOI、</v>
+        <f t="shared" si="0"/>
+        <v>HHH、</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="str">
-        <f>A26&amp;B26</f>
-        <v>HSAM、</v>
+        <f t="shared" si="0"/>
+        <v>HMDN、</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="str">
-        <f>A27&amp;B27</f>
-        <v>HYPN、</v>
+        <f t="shared" si="0"/>
+        <v>HOI、</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="str">
-        <f>A28&amp;B28</f>
-        <v>IMDK、</v>
+        <f t="shared" si="0"/>
+        <v>HSAM、</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="str">
-        <f>A29&amp;B29</f>
-        <v>INST、</v>
+        <f t="shared" si="0"/>
+        <v>HYPN、</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="str">
-        <f>A30&amp;B30</f>
-        <v>ION、</v>
+        <f t="shared" si="0"/>
+        <v>IMDK、</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="str">
-        <f>A31&amp;B31</f>
-        <v>JAC、</v>
+        <f t="shared" si="0"/>
+        <v>INST、</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="str">
-        <f>A32&amp;B32</f>
-        <v>JKK、</v>
+        <f t="shared" si="0"/>
+        <v>ION、</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="str">
-        <f>A33&amp;B33</f>
-        <v>JKZ、</v>
+        <f t="shared" si="0"/>
+        <v>JAC、</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="C34" t="str">
-        <f>A34&amp;B34</f>
-        <v>JNT、</v>
+        <f t="shared" si="0"/>
+        <v>JKK、</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="str">
-        <f>A35&amp;B35</f>
-        <v>JOTK、</v>
+        <f t="shared" si="0"/>
+        <v>JKZ、</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="str">
-        <f>A36&amp;B36</f>
-        <v>JTR、</v>
+        <f t="shared" si="0"/>
+        <v>JNT、</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="str">
-        <f>A37&amp;B37</f>
-        <v>KAGD、</v>
+        <f t="shared" si="0"/>
+        <v>JOTK、</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="str">
-        <f>A38&amp;B38</f>
-        <v>KIRAY、</v>
+        <f t="shared" si="0"/>
+        <v>JTR、</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="str">
-        <f>A39&amp;B39</f>
-        <v>KITAIKE、</v>
+        <f t="shared" si="0"/>
+        <v>KAGD、</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="str">
-        <f>A40&amp;B40</f>
-        <v>KJN、</v>
+        <f t="shared" si="0"/>
+        <v>KBVR、</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="str">
-        <f>A41&amp;B41</f>
-        <v>KMTU、</v>
+        <f t="shared" si="0"/>
+        <v>KIRAY、</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="str">
-        <f>A42&amp;B42</f>
-        <v>KNB、</v>
+        <f t="shared" si="0"/>
+        <v>KITAIKE、</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="str">
-        <f>A43&amp;B43</f>
-        <v>KSKO、</v>
+        <f t="shared" si="0"/>
+        <v>KJN、</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="str">
-        <f>A44&amp;B44</f>
-        <v>KURO、</v>
+        <f t="shared" si="0"/>
+        <v>KMTU、</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="str">
-        <f>A45&amp;B45</f>
-        <v>LADY、</v>
+        <f t="shared" si="0"/>
+        <v>KNB、</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="str">
-        <f>A46&amp;B46</f>
-        <v>LAFBD、</v>
+        <f t="shared" si="0"/>
+        <v>KSKO、</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
       </c>
       <c r="C47" t="str">
-        <f>A47&amp;B47</f>
-        <v>LAS、</v>
+        <f t="shared" si="0"/>
+        <v>KURO、</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="str">
-        <f>A48&amp;B48</f>
-        <v>LUXU、</v>
+        <f t="shared" si="0"/>
+        <v>LADY、</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49" t="str">
-        <f>A49&amp;B49</f>
-        <v>MAAN、</v>
+        <f t="shared" si="0"/>
+        <v>LAFBD、</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50" t="str">
-        <f>A50&amp;B50</f>
-        <v>MAG、</v>
+        <f t="shared" si="0"/>
+        <v>LAS、</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51" t="str">
-        <f>A51&amp;B51</f>
-        <v>MGDN、</v>
+        <f t="shared" si="0"/>
+        <v>LOLI、</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="str">
-        <f>A52&amp;B52</f>
-        <v>MISM、</v>
+        <f t="shared" si="0"/>
+        <v>LUXU、</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
       <c r="C53" t="str">
-        <f>A53&amp;B53</f>
-        <v>MIUM、</v>
+        <f t="shared" si="0"/>
+        <v>MAAN、</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="C54" t="str">
-        <f>A54&amp;B54</f>
-        <v>MMGH、</v>
+        <f t="shared" si="0"/>
+        <v>MAG、</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="str">
-        <f>A55&amp;B55</f>
-        <v>MMH、</v>
+        <f t="shared" si="0"/>
+        <v>MFC、</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
       </c>
       <c r="C56" t="str">
-        <f>A56&amp;B56</f>
-        <v>MNTJ、</v>
+        <f t="shared" si="0"/>
+        <v>MGDN、</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
       </c>
       <c r="C57" t="str">
-        <f>A57&amp;B57</f>
-        <v>MTP、</v>
+        <f t="shared" si="0"/>
+        <v>MISM、</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="str">
-        <f>A58&amp;B58</f>
-        <v>MY、</v>
+        <f t="shared" si="0"/>
+        <v>MIUM、</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
       </c>
       <c r="C59" t="str">
-        <f>A59&amp;B59</f>
-        <v>NAMA、</v>
+        <f t="shared" si="0"/>
+        <v>MLA、</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
       </c>
       <c r="C60" t="str">
-        <f>A60&amp;B60</f>
-        <v>NKR、</v>
+        <f t="shared" si="0"/>
+        <v>MMGH、</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="str">
-        <f>A61&amp;B61</f>
-        <v>NNPJ、</v>
+        <f t="shared" si="0"/>
+        <v>MMH、</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="str">
-        <f>A62&amp;B62</f>
-        <v>NTK、</v>
+        <f t="shared" si="0"/>
+        <v>MNTJ、</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
       <c r="C63" t="str">
-        <f>A63&amp;B63</f>
-        <v>NTTR、</v>
+        <f t="shared" si="0"/>
+        <v>MTP、</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64" t="str">
-        <f>A64&amp;B64</f>
-        <v>OBUT、</v>
+        <f t="shared" si="0"/>
+        <v>MY、</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
       <c r="C65" t="str">
-        <f>A65&amp;B65</f>
-        <v>OKYH、</v>
+        <f t="shared" ref="C65:C118" si="1">A65&amp;B65</f>
+        <v>NAMA、</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="str">
-        <f>A66&amp;B66</f>
-        <v>ONS、</v>
+        <f t="shared" si="1"/>
+        <v>NKR、</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="str">
-        <f>A67&amp;B67</f>
-        <v>ORE、</v>
+        <f t="shared" si="1"/>
+        <v>NNPJ、</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="str">
-        <f>A68&amp;B68</f>
-        <v>OREBMS、</v>
+        <f t="shared" si="1"/>
+        <v>NRPK、</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="str">
-        <f>A69&amp;B69</f>
-        <v>OREC、</v>
+        <f t="shared" si="1"/>
+        <v>NTK、</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
       <c r="C70" t="str">
-        <f>A70&amp;B70</f>
-        <v>OREP、</v>
+        <f t="shared" si="1"/>
+        <v>NTTR、</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="str">
-        <f>A71&amp;B71</f>
-        <v>ORERB、</v>
+        <f t="shared" si="1"/>
+        <v>OBUT、</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="str">
-        <f>A72&amp;B72</f>
-        <v>ORETD、</v>
+        <f t="shared" si="1"/>
+        <v>OKYH、</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="str">
-        <f>A73&amp;B73</f>
-        <v>ORETDP、</v>
+        <f t="shared" si="1"/>
+        <v>ONS、</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="str">
-        <f>A74&amp;B74</f>
-        <v>OREX、</v>
+        <f t="shared" si="1"/>
+        <v>ORE、</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
       </c>
       <c r="C75" t="str">
-        <f>A75&amp;B75</f>
-        <v>OTIM、</v>
+        <f t="shared" si="1"/>
+        <v>OREBMS、</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
       <c r="C76" t="str">
-        <f>A76&amp;B76</f>
-        <v>PAPA、</v>
+        <f t="shared" si="1"/>
+        <v>OREC、</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
       </c>
       <c r="C77" t="str">
-        <f>A77&amp;B77</f>
-        <v>PER、</v>
+        <f t="shared" si="1"/>
+        <v>OREP、</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="str">
-        <f>A78&amp;B78</f>
-        <v>PIZ、</v>
+        <f t="shared" si="1"/>
+        <v>ORERB、</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
       </c>
       <c r="C79" t="str">
-        <f>A79&amp;B79</f>
-        <v>PKJD、</v>
+        <f t="shared" si="1"/>
+        <v>ORETD、</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
       </c>
       <c r="C80" t="str">
-        <f>A80&amp;B80</f>
-        <v>RCTS、</v>
+        <f t="shared" si="1"/>
+        <v>ORETDP、</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
         <v>73</v>
       </c>
       <c r="C81" t="str">
-        <f>A81&amp;B81</f>
-        <v>REG、</v>
+        <f t="shared" si="1"/>
+        <v>OREX、</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
         <v>73</v>
       </c>
       <c r="C82" t="str">
-        <f>A82&amp;B82</f>
-        <v>REP、</v>
+        <f t="shared" si="1"/>
+        <v>OTIM、</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>73</v>
       </c>
       <c r="C83" t="str">
-        <f>A83&amp;B83</f>
-        <v>SCP、</v>
+        <f t="shared" si="1"/>
+        <v>PAPA、</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="str">
-        <f>A84&amp;B84</f>
-        <v>SCUTE、</v>
+        <f t="shared" si="1"/>
+        <v>PER、</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
         <v>73</v>
       </c>
       <c r="C85" t="str">
-        <f>A85&amp;B85</f>
-        <v>SENN、</v>
+        <f t="shared" si="1"/>
+        <v>PIZ、</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
         <v>73</v>
       </c>
       <c r="C86" t="str">
-        <f>A86&amp;B86</f>
-        <v>SHOW、</v>
+        <f t="shared" si="1"/>
+        <v>PKJD、</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
         <v>73</v>
       </c>
       <c r="C87" t="str">
-        <f>A87&amp;B87</f>
-        <v>SHYN、</v>
+        <f t="shared" si="1"/>
+        <v>RCTS、</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
         <v>73</v>
       </c>
       <c r="C88" t="str">
-        <f>A88&amp;B88</f>
-        <v>SIMM、</v>
+        <f t="shared" si="1"/>
+        <v>REG、</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
         <v>73</v>
       </c>
       <c r="C89" t="str">
-        <f>A89&amp;B89</f>
-        <v>SIRO、</v>
+        <f t="shared" si="1"/>
+        <v>REP、</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
         <v>73</v>
       </c>
       <c r="C90" t="str">
-        <f>A90&amp;B90</f>
-        <v>SPOR、</v>
+        <f t="shared" si="1"/>
+        <v>SCP、</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>73</v>
       </c>
       <c r="C91" t="str">
-        <f>A91&amp;B91</f>
-        <v>SPRM、</v>
+        <f t="shared" si="1"/>
+        <v>SCUTE、</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
         <v>73</v>
       </c>
       <c r="C92" t="str">
-        <f>A92&amp;B92</f>
-        <v>SQB、</v>
+        <f t="shared" si="1"/>
+        <v>SDGN、</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
         <v>73</v>
       </c>
       <c r="C93" t="str">
-        <f>A93&amp;B93</f>
-        <v>SRCN、</v>
+        <f t="shared" si="1"/>
+        <v>SENN、</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
       </c>
       <c r="C94" t="str">
-        <f>A94&amp;B94</f>
-        <v>SRHO、</v>
+        <f t="shared" si="1"/>
+        <v>SGK、</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
       </c>
       <c r="C95" t="str">
-        <f>A95&amp;B95</f>
-        <v>SRTD、</v>
+        <f t="shared" si="1"/>
+        <v>SHOW、</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
         <v>73</v>
       </c>
       <c r="C96" t="str">
-        <f>A96&amp;B96</f>
-        <v>SSAN、</v>
+        <f t="shared" si="1"/>
+        <v>SHYN、</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>73</v>
       </c>
       <c r="C97" t="str">
-        <f>A97&amp;B97</f>
-        <v>STKO、</v>
+        <f t="shared" si="1"/>
+        <v>SIMM、</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>73</v>
       </c>
       <c r="C98" t="str">
-        <f>A98&amp;B98</f>
-        <v>SUKE、</v>
+        <f t="shared" si="1"/>
+        <v>SIRO、</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
         <v>73</v>
       </c>
       <c r="C99" t="str">
-        <f>A99&amp;B99</f>
-        <v>SVMM、</v>
+        <f t="shared" si="1"/>
+        <v>SKIV、</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
         <v>73</v>
       </c>
       <c r="C100" t="str">
-        <f>A100&amp;B100</f>
-        <v>SWEET、</v>
+        <f t="shared" si="1"/>
+        <v>SPCY、</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
       </c>
       <c r="C101" t="str">
-        <f>A101&amp;B101</f>
-        <v>SYBI、</v>
+        <f t="shared" si="1"/>
+        <v>SPOR、</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
         <v>73</v>
       </c>
       <c r="C102" t="str">
-        <f>A102&amp;B102</f>
-        <v>URF、</v>
+        <f t="shared" si="1"/>
+        <v>SPRM、</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
         <v>73</v>
       </c>
       <c r="C103" t="str">
-        <f>A103&amp;B103</f>
-        <v>VOV、</v>
+        <f t="shared" si="1"/>
+        <v>SQB、</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>SRCN、</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>SRHO、</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>SRTD、</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>SSAN、</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>STKO、</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>SUKE、</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>SVMM、</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>SWEET、</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>SYBI、</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUMG、</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>URF、</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>UTSU、</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>VOV、</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>50</v>
       </c>
-      <c r="C104" t="str">
-        <f>A104&amp;B104</f>
-        <v>YKMC</v>
+      <c r="B117" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>YKMC、</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>YRTB</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C104">
-    <sortCondition ref="A1:A104"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A118">
+    <sortCondition ref="A16:A118"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
